--- a/iterationsNORMAL/iter_8/data.xlsx
+++ b/iterationsNORMAL/iter_8/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79.41058006333955</v>
+        <v>36.40850895515575</v>
       </c>
       <c r="B2" t="n">
-        <v>-30.091354226837</v>
+        <v>7.226739592486405</v>
       </c>
       <c r="C2" t="n">
-        <v>52.9709040440602</v>
+        <v>-42.39680321446797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-26.60194496472122</v>
+        <v>19.41377951939408</v>
       </c>
       <c r="B3" t="n">
-        <v>-23.42553054991734</v>
+        <v>30.5727751323364</v>
       </c>
       <c r="C3" t="n">
-        <v>-20.71200836152258</v>
+        <v>26.02682574021199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21.71719699699986</v>
+        <v>25.87190451445096</v>
       </c>
       <c r="B4" t="n">
-        <v>54.13117454810963</v>
+        <v>-20.97079804446128</v>
       </c>
       <c r="C4" t="n">
-        <v>-28.70624151041493</v>
+        <v>-29.85341260506954</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-16.78767455582981</v>
+        <v>-36.43508506181674</v>
       </c>
       <c r="B5" t="n">
-        <v>-17.54394244260283</v>
+        <v>-31.09220830923792</v>
       </c>
       <c r="C5" t="n">
-        <v>-36.95955320033352</v>
+        <v>-26.69925899629001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>53.38200386456034</v>
+        <v>31.34585302305542</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.154092977996393</v>
+        <v>25.68150644572886</v>
       </c>
       <c r="C6" t="n">
-        <v>-33.85541698648112</v>
+        <v>-20.31049794207691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59.43987207462379</v>
+        <v>36.60401031816811</v>
       </c>
       <c r="B7" t="n">
-        <v>10.74557529915068</v>
+        <v>10.36368320717768</v>
       </c>
       <c r="C7" t="n">
-        <v>-16.91941855100789</v>
+        <v>-28.7446125904751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26.86141539318827</v>
+        <v>18.34480570285294</v>
       </c>
       <c r="B8" t="n">
-        <v>41.67364543102953</v>
+        <v>27.37306895437079</v>
       </c>
       <c r="C8" t="n">
-        <v>-26.2857712208236</v>
+        <v>-16.3872349828284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-32.55867343068779</v>
+        <v>-17.29936692259396</v>
       </c>
       <c r="B9" t="n">
-        <v>35.46116956145818</v>
+        <v>-8.637050272584816</v>
       </c>
       <c r="C9" t="n">
-        <v>-22.44221875595813</v>
+        <v>-23.06306562380372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30.51874714527963</v>
+        <v>30.59114951008161</v>
       </c>
       <c r="B10" t="n">
-        <v>6.53451761048668</v>
+        <v>15.38807087200281</v>
       </c>
       <c r="C10" t="n">
-        <v>9.825856041654061</v>
+        <v>-15.8931472343177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-16.51612286062469</v>
+        <v>-15.24504643066854</v>
       </c>
       <c r="B11" t="n">
-        <v>-33.74248015319535</v>
+        <v>-31.38301632516995</v>
       </c>
       <c r="C11" t="n">
-        <v>18.45663840649438</v>
+        <v>-23.8965950554686</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16.01652825311671</v>
+        <v>-29.62777078198984</v>
       </c>
       <c r="B12" t="n">
-        <v>4.019094970177958</v>
+        <v>24.35199851104711</v>
       </c>
       <c r="C12" t="n">
-        <v>23.35757163450592</v>
+        <v>37.33187338165199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-16.65550999976416</v>
+        <v>31.76256703629355</v>
       </c>
       <c r="B13" t="n">
-        <v>-30.68615873596141</v>
+        <v>-22.50743499487398</v>
       </c>
       <c r="C13" t="n">
-        <v>6.994777944387081</v>
+        <v>23.51553525702293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-22.15966852779775</v>
+        <v>-30.40575029839618</v>
       </c>
       <c r="B14" t="n">
-        <v>22.43206932865076</v>
+        <v>11.94038031154056</v>
       </c>
       <c r="C14" t="n">
-        <v>42.14789226337119</v>
+        <v>-16.147247032996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-39.6074403809579</v>
+        <v>-12.02591041848101</v>
       </c>
       <c r="B15" t="n">
-        <v>-28.85157979508796</v>
+        <v>30.15557388911525</v>
       </c>
       <c r="C15" t="n">
-        <v>-26.63713010497113</v>
+        <v>24.30301460114734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-36.30965354526448</v>
+        <v>40.17109434913684</v>
       </c>
       <c r="B16" t="n">
-        <v>-31.26527864735708</v>
+        <v>-27.39330930682063</v>
       </c>
       <c r="C16" t="n">
-        <v>-18.98799677922729</v>
+        <v>-28.05625333314388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68.09242759823316</v>
+        <v>-42.06020821260024</v>
       </c>
       <c r="B17" t="n">
-        <v>67.84970298486215</v>
+        <v>-20.51112091018201</v>
       </c>
       <c r="C17" t="n">
-        <v>24.22147114257281</v>
+        <v>17.78758993291736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19.90638020277061</v>
+        <v>22.1045435063219</v>
       </c>
       <c r="B18" t="n">
-        <v>-17.58480469890817</v>
+        <v>-22.20697235613387</v>
       </c>
       <c r="C18" t="n">
-        <v>-19.68129212503735</v>
+        <v>26.66128134705467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>74.48615512775807</v>
+        <v>-31.20347514088789</v>
       </c>
       <c r="B19" t="n">
-        <v>28.54967008335896</v>
+        <v>34.98558966184027</v>
       </c>
       <c r="C19" t="n">
-        <v>24.69240546827589</v>
+        <v>29.58793190495033</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>28.25985520157479</v>
+        <v>11.61974040932651</v>
       </c>
       <c r="B20" t="n">
-        <v>-23.06144756580559</v>
+        <v>-15.40958753310198</v>
       </c>
       <c r="C20" t="n">
-        <v>51.79347888556712</v>
+        <v>-40.85086381441359</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-41.25465140566832</v>
+        <v>25.97495694383238</v>
       </c>
       <c r="B21" t="n">
-        <v>-31.56838190038184</v>
+        <v>-22.62620100200061</v>
       </c>
       <c r="C21" t="n">
-        <v>-21.91667626326078</v>
+        <v>13.22632928042735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-20.6440407726186</v>
+        <v>8.12119416835246</v>
       </c>
       <c r="B22" t="n">
-        <v>-26.03842561430471</v>
+        <v>-33.6656336594278</v>
       </c>
       <c r="C22" t="n">
-        <v>-28.74710668994952</v>
+        <v>-17.88961520986786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-23.96947587308332</v>
+        <v>25.19911572247193</v>
       </c>
       <c r="B23" t="n">
-        <v>26.80835399529595</v>
+        <v>-5.521909781155246</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.734897691330109</v>
+        <v>16.84208695941424</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.466185451667562</v>
+        <v>32.13834019843572</v>
       </c>
       <c r="B24" t="n">
-        <v>40.63477991951915</v>
+        <v>33.31252135941821</v>
       </c>
       <c r="C24" t="n">
-        <v>-21.151091211278</v>
+        <v>28.44658066373095</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-25.66124989640696</v>
+        <v>-26.55294945939031</v>
       </c>
       <c r="B25" t="n">
-        <v>-22.79039776052726</v>
+        <v>-19.92183623689485</v>
       </c>
       <c r="C25" t="n">
-        <v>-34.70777381523914</v>
+        <v>-7.161116757008704</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20.59382873788509</v>
+        <v>-21.08966867077767</v>
       </c>
       <c r="B26" t="n">
-        <v>-10.39541519882035</v>
+        <v>25.50628371320269</v>
       </c>
       <c r="C26" t="n">
-        <v>-38.28664040214697</v>
+        <v>14.9288349556498</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>59.23904256760789</v>
+        <v>-16.71931739486273</v>
       </c>
       <c r="B27" t="n">
-        <v>28.60123865741686</v>
+        <v>-22.1575475730382</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.01369143058288</v>
+        <v>28.50288903769368</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-26.09609009294784</v>
+        <v>-24.13369049303388</v>
       </c>
       <c r="B28" t="n">
-        <v>-24.28416794648766</v>
+        <v>14.25506801601959</v>
       </c>
       <c r="C28" t="n">
-        <v>-9.829479907692434</v>
+        <v>-29.36533243763899</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-46.01934261072499</v>
+        <v>35.85680017189089</v>
       </c>
       <c r="B29" t="n">
-        <v>44.36889333583808</v>
+        <v>23.86008645314094</v>
       </c>
       <c r="C29" t="n">
-        <v>-36.57916788467785</v>
+        <v>-27.62805892151109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-19.33258397644</v>
+        <v>-23.55750014171148</v>
       </c>
       <c r="B30" t="n">
-        <v>-36.64827642873529</v>
+        <v>-18.71674583630373</v>
       </c>
       <c r="C30" t="n">
-        <v>-33.31750851111596</v>
+        <v>38.96970178396614</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-30.04901407812262</v>
+        <v>28.83332788960372</v>
       </c>
       <c r="B31" t="n">
-        <v>-27.83198950069542</v>
+        <v>-29.72657437110535</v>
       </c>
       <c r="C31" t="n">
-        <v>-29.11485082288807</v>
+        <v>16.20195563778707</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-24.67974480672217</v>
+        <v>16.36488141419149</v>
       </c>
       <c r="B32" t="n">
-        <v>-23.74549856792897</v>
+        <v>-22.66245858987991</v>
       </c>
       <c r="C32" t="n">
-        <v>-22.68128556002673</v>
+        <v>22.16582371053656</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46.46238414608501</v>
+        <v>-20.91397796230311</v>
       </c>
       <c r="B33" t="n">
-        <v>51.18115853227091</v>
+        <v>26.98216296801352</v>
       </c>
       <c r="C33" t="n">
-        <v>-22.24474289839914</v>
+        <v>-39.25027296920985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>41.66638708090891</v>
+        <v>28.83002712494914</v>
       </c>
       <c r="B34" t="n">
-        <v>-23.05413628067348</v>
+        <v>-18.82651871188227</v>
       </c>
       <c r="C34" t="n">
-        <v>2.676539109238119</v>
+        <v>-32.74506093161612</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-15.34340441455349</v>
+        <v>30.87183425820447</v>
       </c>
       <c r="B35" t="n">
-        <v>8.552213218442541</v>
+        <v>-26.82047456774978</v>
       </c>
       <c r="C35" t="n">
-        <v>-38.52165764555458</v>
+        <v>-26.41480219553199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>48.32607269047836</v>
+        <v>-23.57555788186719</v>
       </c>
       <c r="B36" t="n">
-        <v>7.048432734751054</v>
+        <v>27.9220859763045</v>
       </c>
       <c r="C36" t="n">
-        <v>-32.54509393260774</v>
+        <v>13.62460301046335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.496015931047459</v>
+        <v>-21.88690627203331</v>
       </c>
       <c r="B37" t="n">
-        <v>34.05059538165199</v>
+        <v>25.58036483227496</v>
       </c>
       <c r="C37" t="n">
-        <v>3.968027387144792</v>
+        <v>-19.45216311407824</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-37.64323837330164</v>
+        <v>-20.52462619816301</v>
       </c>
       <c r="B38" t="n">
-        <v>48.19125912943082</v>
+        <v>18.33346156396316</v>
       </c>
       <c r="C38" t="n">
-        <v>-25.26734901542786</v>
+        <v>-32.59279978833381</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>26.07141612818916</v>
+        <v>31.02442398407865</v>
       </c>
       <c r="B39" t="n">
-        <v>-7.628365649565747</v>
+        <v>-32.67168433867835</v>
       </c>
       <c r="C39" t="n">
-        <v>-23.26200359668312</v>
+        <v>-23.91849675543415</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21.32743545637668</v>
+        <v>24.13020038999185</v>
       </c>
       <c r="B40" t="n">
-        <v>6.530127742445197</v>
+        <v>-40.73849642272771</v>
       </c>
       <c r="C40" t="n">
-        <v>13.20832389343943</v>
+        <v>-27.29390176134377</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>63.37215834373248</v>
+        <v>-27.21980029857369</v>
       </c>
       <c r="B41" t="n">
-        <v>-17.40582548912889</v>
+        <v>-25.23471429103079</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.44805637715574</v>
+        <v>-32.43555792190188</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19.60188210003919</v>
+        <v>28.09009159197033</v>
       </c>
       <c r="B42" t="n">
-        <v>22.96167409214476</v>
+        <v>-28.48675583430606</v>
       </c>
       <c r="C42" t="n">
-        <v>-28.36594680838548</v>
+        <v>17.48482079966703</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9.608951461215677</v>
+        <v>-9.15682986283087</v>
       </c>
       <c r="B43" t="n">
-        <v>14.98080838930555</v>
+        <v>22.17182397408629</v>
       </c>
       <c r="C43" t="n">
-        <v>61.20979299161807</v>
+        <v>41.63301444447908</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>44.10371342187657</v>
+        <v>26.38228038617254</v>
       </c>
       <c r="B44" t="n">
-        <v>7.071370576848008</v>
+        <v>-18.80479029052914</v>
       </c>
       <c r="C44" t="n">
-        <v>49.7679415156144</v>
+        <v>21.19884863890897</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.81262869134332</v>
+        <v>-18.84534795099658</v>
       </c>
       <c r="B45" t="n">
-        <v>19.10791488079754</v>
+        <v>15.53680851564442</v>
       </c>
       <c r="C45" t="n">
-        <v>37.46737938147233</v>
+        <v>-31.99088187326705</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.88822808332306</v>
+        <v>30.64324143830675</v>
       </c>
       <c r="B46" t="n">
-        <v>27.24889522249086</v>
+        <v>14.48097486648727</v>
       </c>
       <c r="C46" t="n">
-        <v>-22.92186347854882</v>
+        <v>26.06907857648798</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>19.92016931661433</v>
+        <v>28.77521948833322</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1748911897754772</v>
+        <v>-25.62188399206152</v>
       </c>
       <c r="C47" t="n">
-        <v>17.25811767510675</v>
+        <v>18.29530944934318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>61.98562924362263</v>
+        <v>18.32297919460075</v>
       </c>
       <c r="B48" t="n">
-        <v>-33.00484852994546</v>
+        <v>16.64009192375458</v>
       </c>
       <c r="C48" t="n">
-        <v>-34.63994238078849</v>
+        <v>-32.33194601874455</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-26.68961544465017</v>
+        <v>34.85928570556491</v>
       </c>
       <c r="B49" t="n">
-        <v>33.64409378244988</v>
+        <v>-40.78368324224611</v>
       </c>
       <c r="C49" t="n">
-        <v>-18.54147948132651</v>
+        <v>24.8210335578207</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>29.23103117550834</v>
+        <v>-18.14903865932563</v>
       </c>
       <c r="B50" t="n">
-        <v>-31.18123010925738</v>
+        <v>19.24354134019415</v>
       </c>
       <c r="C50" t="n">
-        <v>43.57026455514405</v>
+        <v>-27.6895952504097</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-29.22714437722305</v>
+        <v>31.56809464750375</v>
       </c>
       <c r="B51" t="n">
-        <v>1.474587201453312</v>
+        <v>-24.6770677347935</v>
       </c>
       <c r="C51" t="n">
-        <v>29.47864552830844</v>
+        <v>-25.64160670569017</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>19.85823295322704</v>
+        <v>-19.56375253020814</v>
       </c>
       <c r="B52" t="n">
-        <v>53.80132201008381</v>
+        <v>-31.01393661894036</v>
       </c>
       <c r="C52" t="n">
-        <v>-23.02224239646779</v>
+        <v>-24.62333885518374</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-28.46051383753158</v>
+        <v>-20.71778759783293</v>
       </c>
       <c r="B53" t="n">
-        <v>-29.18222599213088</v>
+        <v>-17.87246707750304</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.695339892519966</v>
+        <v>18.92112631578952</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>41.06237620136306</v>
+        <v>-39.89449694431698</v>
       </c>
       <c r="B54" t="n">
-        <v>31.73170935173818</v>
+        <v>-28.9277594388493</v>
       </c>
       <c r="C54" t="n">
-        <v>-42.69804994387429</v>
+        <v>-16.75550956012292</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-15.6300324096664</v>
+        <v>13.18334037617388</v>
       </c>
       <c r="B55" t="n">
-        <v>12.67424360540509</v>
+        <v>-19.14370298129089</v>
       </c>
       <c r="C55" t="n">
-        <v>-11.57989733901675</v>
+        <v>-24.97922179069012</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-39.24146723126079</v>
+        <v>-15.59162301876809</v>
       </c>
       <c r="B56" t="n">
-        <v>-12.54773117713756</v>
+        <v>-40.52012895064354</v>
       </c>
       <c r="C56" t="n">
-        <v>-19.14509537505387</v>
+        <v>-42.16972792853378</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>58.27029417401624</v>
+        <v>-26.40231874397869</v>
       </c>
       <c r="B57" t="n">
-        <v>-2.179964294836348</v>
+        <v>-33.9020558206857</v>
       </c>
       <c r="C57" t="n">
-        <v>-29.92994483447729</v>
+        <v>34.91283144189991</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-24.71054376811875</v>
+        <v>34.7756181501935</v>
       </c>
       <c r="B58" t="n">
-        <v>78.62961488007674</v>
+        <v>-10.79523431974533</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.11718641458003</v>
+        <v>-30.57819901321743</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6.152755160881979</v>
+        <v>23.06308073838832</v>
       </c>
       <c r="B59" t="n">
-        <v>-11.35708789791334</v>
+        <v>18.15720639269334</v>
       </c>
       <c r="C59" t="n">
-        <v>-46.31024436878263</v>
+        <v>-27.6929435054529</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>46.68634157925499</v>
+        <v>19.02701092646306</v>
       </c>
       <c r="B60" t="n">
-        <v>17.3694743150449</v>
+        <v>-39.04317042993101</v>
       </c>
       <c r="C60" t="n">
-        <v>-21.43112765699603</v>
+        <v>-22.08486944072274</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>47.48284642252842</v>
+        <v>24.13836278229572</v>
       </c>
       <c r="B61" t="n">
-        <v>-23.28534359907841</v>
+        <v>33.831736960006</v>
       </c>
       <c r="C61" t="n">
-        <v>35.83786908941589</v>
+        <v>-47.60305635102335</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-23.20738142442888</v>
+        <v>15.44222825555313</v>
       </c>
       <c r="B62" t="n">
-        <v>50.47642664431707</v>
+        <v>-23.26721589348628</v>
       </c>
       <c r="C62" t="n">
-        <v>-32.36826535942257</v>
+        <v>-30.53711474343893</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>33.29671048586474</v>
+        <v>-11.17752129103867</v>
       </c>
       <c r="B63" t="n">
-        <v>14.29658591520333</v>
+        <v>-29.91689140998977</v>
       </c>
       <c r="C63" t="n">
-        <v>-33.20395005535072</v>
+        <v>-29.47840196226513</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>36.60198830226677</v>
+        <v>31.42449369867373</v>
       </c>
       <c r="B64" t="n">
-        <v>-30.15395772951543</v>
+        <v>21.88359207894196</v>
       </c>
       <c r="C64" t="n">
-        <v>46.15422686279705</v>
+        <v>14.85883378702401</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>48.01924301329822</v>
+        <v>-43.82604629614476</v>
       </c>
       <c r="B65" t="n">
-        <v>37.12065768366114</v>
+        <v>-30.55226616509445</v>
       </c>
       <c r="C65" t="n">
-        <v>19.24775279096142</v>
+        <v>-19.36119765327516</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-19.2082676048153</v>
+        <v>24.11284953236956</v>
       </c>
       <c r="B66" t="n">
-        <v>-25.28306524571345</v>
+        <v>16.23403219675933</v>
       </c>
       <c r="C66" t="n">
-        <v>15.69934173983061</v>
+        <v>16.87293502971098</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-11.32782855091345</v>
+        <v>8.652133318169495</v>
       </c>
       <c r="B67" t="n">
-        <v>-22.47442009877483</v>
+        <v>6.529681043438573</v>
       </c>
       <c r="C67" t="n">
-        <v>-21.7751322271685</v>
+        <v>-19.34681603008646</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>29.90733761532497</v>
+        <v>33.13827960342969</v>
       </c>
       <c r="B68" t="n">
-        <v>-4.99745152294957</v>
+        <v>26.07915529226475</v>
       </c>
       <c r="C68" t="n">
-        <v>37.46638411251658</v>
+        <v>11.96098518499122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-32.34287928870976</v>
+        <v>13.82587253278326</v>
       </c>
       <c r="B69" t="n">
-        <v>-13.01976349608967</v>
+        <v>-28.55866002893344</v>
       </c>
       <c r="C69" t="n">
-        <v>4.155203332549687</v>
+        <v>-23.64993493720088</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68.45057864986138</v>
+        <v>-24.67633737924791</v>
       </c>
       <c r="B70" t="n">
-        <v>-37.60814633406787</v>
+        <v>-19.79213987742333</v>
       </c>
       <c r="C70" t="n">
-        <v>31.5914238866948</v>
+        <v>38.81135080819352</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>29.1765335595138</v>
+        <v>-25.22344644775442</v>
       </c>
       <c r="B71" t="n">
-        <v>70.41835760963252</v>
+        <v>-29.14895737902387</v>
       </c>
       <c r="C71" t="n">
-        <v>34.49937359043097</v>
+        <v>-21.27718764056864</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>11.89209412917872</v>
+        <v>-26.50560091443774</v>
       </c>
       <c r="B72" t="n">
-        <v>14.33935549389586</v>
+        <v>44.4550470026096</v>
       </c>
       <c r="C72" t="n">
-        <v>-35.12773444184794</v>
+        <v>25.99941041026918</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>48.18991349867648</v>
+        <v>-38.75227010854528</v>
       </c>
       <c r="B73" t="n">
-        <v>-18.75805790540967</v>
+        <v>-33.45955163570135</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.94761838079522</v>
+        <v>33.53794975277853</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.54404872267299</v>
+        <v>-24.74442044627629</v>
       </c>
       <c r="B74" t="n">
-        <v>-10.75811488967707</v>
+        <v>22.22667992770982</v>
       </c>
       <c r="C74" t="n">
-        <v>26.21496468567892</v>
+        <v>-16.34791235795932</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-43.91160973746808</v>
+        <v>-18.05626732300015</v>
       </c>
       <c r="B75" t="n">
-        <v>17.13946706576644</v>
+        <v>-31.46435398127006</v>
       </c>
       <c r="C75" t="n">
-        <v>-20.8429547104462</v>
+        <v>35.34140653586438</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-37.08751432602433</v>
+        <v>7.563234704065083</v>
       </c>
       <c r="B76" t="n">
-        <v>-7.493710115694326</v>
+        <v>-32.06427651351374</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.540562667441583</v>
+        <v>-13.17969722161166</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.845212770369487</v>
+        <v>-35.6225812819303</v>
       </c>
       <c r="B77" t="n">
-        <v>29.93270498136005</v>
+        <v>-17.23313433206408</v>
       </c>
       <c r="C77" t="n">
-        <v>-32.9507994066707</v>
+        <v>-19.09161977844917</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.65043000065413</v>
+        <v>-6.424018495499433</v>
       </c>
       <c r="B78" t="n">
-        <v>39.42464956477406</v>
+        <v>-39.67985362956796</v>
       </c>
       <c r="C78" t="n">
-        <v>37.63353655481201</v>
+        <v>-18.73103375392479</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-34.98893760533959</v>
+        <v>18.02480467713578</v>
       </c>
       <c r="B79" t="n">
-        <v>-30.50788053338144</v>
+        <v>-12.94183239915921</v>
       </c>
       <c r="C79" t="n">
-        <v>-26.4744377646568</v>
+        <v>24.97021882645161</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-27.68622824558479</v>
+        <v>-25.99515422144011</v>
       </c>
       <c r="B80" t="n">
-        <v>-4.770742907619535</v>
+        <v>14.22611734469159</v>
       </c>
       <c r="C80" t="n">
-        <v>32.0190315599073</v>
+        <v>31.77007965800312</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10.5500952508225</v>
+        <v>-14.04163737577141</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.034582687834575</v>
+        <v>26.48566931373387</v>
       </c>
       <c r="C81" t="n">
-        <v>8.975262508739549</v>
+        <v>-11.64539247096223</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-24.72833009081504</v>
+        <v>-18.92362691067775</v>
       </c>
       <c r="B82" t="n">
-        <v>-32.09811984674728</v>
+        <v>25.96562700620715</v>
       </c>
       <c r="C82" t="n">
-        <v>-15.80983252989586</v>
+        <v>-20.50479149920061</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.545638607881903</v>
+        <v>11.51826796086046</v>
       </c>
       <c r="B83" t="n">
-        <v>-33.07429181293399</v>
+        <v>-23.74205352927163</v>
       </c>
       <c r="C83" t="n">
-        <v>11.65141422046517</v>
+        <v>-19.63482957602107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-20.67347404326165</v>
+        <v>-32.63275633818686</v>
       </c>
       <c r="B84" t="n">
-        <v>16.89940435115344</v>
+        <v>-29.6099519957944</v>
       </c>
       <c r="C84" t="n">
-        <v>33.23967608597629</v>
+        <v>-27.26755390939279</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-45.9916656992993</v>
+        <v>-9.864520721259824</v>
       </c>
       <c r="B85" t="n">
-        <v>-23.58183792887125</v>
+        <v>-21.70186510296076</v>
       </c>
       <c r="C85" t="n">
-        <v>-22.67731308012527</v>
+        <v>29.79260627173212</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-35.42279249011618</v>
+        <v>29.88582804042117</v>
       </c>
       <c r="B86" t="n">
-        <v>-32.48878815788115</v>
+        <v>-29.50712052007716</v>
       </c>
       <c r="C86" t="n">
-        <v>-23.52429882214336</v>
+        <v>-21.3546064154127</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-31.54379130425667</v>
+        <v>-34.77109159242626</v>
       </c>
       <c r="B87" t="n">
-        <v>15.12220027385686</v>
+        <v>-31.62377726794769</v>
       </c>
       <c r="C87" t="n">
-        <v>-31.63338731622495</v>
+        <v>-9.665024842964446</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-9.382180834695721</v>
+        <v>-23.96369606557506</v>
       </c>
       <c r="B88" t="n">
-        <v>-30.75168400880246</v>
+        <v>30.09683235534039</v>
       </c>
       <c r="C88" t="n">
-        <v>-24.15263201229244</v>
+        <v>31.96849914638181</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>30.18053853811291</v>
+        <v>-29.28175635449622</v>
       </c>
       <c r="B89" t="n">
-        <v>33.43170590125126</v>
+        <v>-29.50656514924042</v>
       </c>
       <c r="C89" t="n">
-        <v>-22.63588197801165</v>
+        <v>23.51892043215944</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-39.08514433791634</v>
+        <v>-19.17386138674336</v>
       </c>
       <c r="B90" t="n">
-        <v>-28.60330838780781</v>
+        <v>23.40442922489235</v>
       </c>
       <c r="C90" t="n">
-        <v>-4.659952860230046</v>
+        <v>23.54788656350929</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>55.12147700626233</v>
+        <v>36.70856421048579</v>
       </c>
       <c r="B91" t="n">
-        <v>15.01798110627416</v>
+        <v>19.48911716166475</v>
       </c>
       <c r="C91" t="n">
-        <v>-24.31662300410728</v>
+        <v>29.23134508152943</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-7.390698579014826</v>
+        <v>-17.30425776209353</v>
       </c>
       <c r="B92" t="n">
-        <v>1.20907465643137</v>
+        <v>25.26474193418684</v>
       </c>
       <c r="C92" t="n">
-        <v>22.32881202481185</v>
+        <v>-18.42743406623049</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>42.50517853777178</v>
+        <v>16.47443957485115</v>
       </c>
       <c r="B93" t="n">
-        <v>-15.30128937938398</v>
+        <v>-31.32212456337352</v>
       </c>
       <c r="C93" t="n">
-        <v>37.39143572277648</v>
+        <v>26.56089006003004</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>13.05903658197641</v>
+        <v>24.96817138223533</v>
       </c>
       <c r="B94" t="n">
-        <v>-22.65287477026138</v>
+        <v>19.794563993768</v>
       </c>
       <c r="C94" t="n">
-        <v>-38.56192731525306</v>
+        <v>-13.70365640001147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>18.58527490850437</v>
+        <v>19.12815604524111</v>
       </c>
       <c r="B95" t="n">
-        <v>-47.34347573533441</v>
+        <v>-21.04101785143095</v>
       </c>
       <c r="C95" t="n">
-        <v>4.738205333081188</v>
+        <v>-26.13129358041327</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7.965864775302967</v>
+        <v>-31.34756186932086</v>
       </c>
       <c r="B96" t="n">
-        <v>-39.6996520688728</v>
+        <v>-40.45871807497987</v>
       </c>
       <c r="C96" t="n">
-        <v>31.35039200418457</v>
+        <v>-27.17683274243249</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5.355451603853925</v>
+        <v>27.9096588870602</v>
       </c>
       <c r="B97" t="n">
-        <v>-39.75712483242514</v>
+        <v>-32.09040196383357</v>
       </c>
       <c r="C97" t="n">
-        <v>-28.81754486067375</v>
+        <v>-26.31540956827332</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-20.14129624713531</v>
+        <v>-37.58598948911897</v>
       </c>
       <c r="B98" t="n">
-        <v>-38.97898141640321</v>
+        <v>-35.96324188715595</v>
       </c>
       <c r="C98" t="n">
-        <v>33.2294431512881</v>
+        <v>-5.690656368049475</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10.19615439467475</v>
+        <v>23.80027415880851</v>
       </c>
       <c r="B99" t="n">
-        <v>-30.30797521958926</v>
+        <v>-27.10171377873631</v>
       </c>
       <c r="C99" t="n">
-        <v>-18.35746024397681</v>
+        <v>10.33570528757176</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-32.82624130036035</v>
+        <v>24.72300873309813</v>
       </c>
       <c r="B100" t="n">
-        <v>-31.23346005192547</v>
+        <v>20.07050257624344</v>
       </c>
       <c r="C100" t="n">
-        <v>3.639013570205769</v>
+        <v>25.97200859104621</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-23.2865897357489</v>
+        <v>-31.28817541531181</v>
       </c>
       <c r="B101" t="n">
-        <v>-29.34600742100039</v>
+        <v>-27.62950696443917</v>
       </c>
       <c r="C101" t="n">
-        <v>-37.85408321112555</v>
+        <v>-28.65731684188838</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6.938005834460538</v>
+        <v>12.60731162447218</v>
       </c>
       <c r="B102" t="n">
-        <v>-17.82404375178972</v>
+        <v>-30.7955196296927</v>
       </c>
       <c r="C102" t="n">
-        <v>60.21332347097728</v>
+        <v>-14.22685299437017</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>49.45262966242609</v>
+        <v>-32.3969446235049</v>
       </c>
       <c r="B103" t="n">
-        <v>-33.68358793602321</v>
+        <v>20.10878562897132</v>
       </c>
       <c r="C103" t="n">
-        <v>31.87422536849191</v>
+        <v>-29.31965457084744</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>50.64183655475798</v>
+        <v>-17.7196558050062</v>
       </c>
       <c r="B104" t="n">
-        <v>-19.48900311444529</v>
+        <v>-17.99210406270555</v>
       </c>
       <c r="C104" t="n">
-        <v>43.15070054777175</v>
+        <v>-18.6176369221507</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-30.43824046246752</v>
+        <v>-12.65722601235329</v>
       </c>
       <c r="B105" t="n">
-        <v>56.77491352270476</v>
+        <v>18.89461022587376</v>
       </c>
       <c r="C105" t="n">
-        <v>-19.35614490846118</v>
+        <v>-31.17435038556884</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>20.98434756546559</v>
+        <v>23.29124194936369</v>
       </c>
       <c r="B106" t="n">
-        <v>-20.88610098157687</v>
+        <v>-39.19835144222808</v>
       </c>
       <c r="C106" t="n">
-        <v>36.30230172249347</v>
+        <v>-28.66289233360101</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-9.124974269499631</v>
+        <v>32.75325528303441</v>
       </c>
       <c r="B107" t="n">
-        <v>36.80394468823298</v>
+        <v>-22.94533801988225</v>
       </c>
       <c r="C107" t="n">
-        <v>-6.036676563291506</v>
+        <v>-40.7187397995851</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-22.11948983015446</v>
+        <v>-26.0295580469941</v>
       </c>
       <c r="B108" t="n">
-        <v>-2.766910558697274</v>
+        <v>-32.94873051781533</v>
       </c>
       <c r="C108" t="n">
-        <v>33.28249824837702</v>
+        <v>-30.25743183626649</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-17.85797557710001</v>
+        <v>-19.49979542743615</v>
       </c>
       <c r="B109" t="n">
-        <v>29.87040605233774</v>
+        <v>-14.56325691677974</v>
       </c>
       <c r="C109" t="n">
-        <v>-14.93061803625826</v>
+        <v>-12.03208472607566</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-28.38806754498999</v>
+        <v>-11.44562781121725</v>
       </c>
       <c r="B110" t="n">
-        <v>-21.37559495597329</v>
+        <v>-29.95231111523227</v>
       </c>
       <c r="C110" t="n">
-        <v>39.58035577547994</v>
+        <v>-30.80126514112963</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-23.46081907415518</v>
+        <v>-17.49617059854877</v>
       </c>
       <c r="B111" t="n">
-        <v>-29.05348359417941</v>
+        <v>-16.45018611470731</v>
       </c>
       <c r="C111" t="n">
-        <v>-13.07760917894156</v>
+        <v>25.67860785923438</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-30.37959422547308</v>
+        <v>22.98473515516812</v>
       </c>
       <c r="B112" t="n">
-        <v>-19.66437890918615</v>
+        <v>-26.21245487171425</v>
       </c>
       <c r="C112" t="n">
-        <v>30.27721241955417</v>
+        <v>29.07899171772096</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>42.13354869775697</v>
+        <v>-29.391731954854</v>
       </c>
       <c r="B113" t="n">
-        <v>-15.5047999810047</v>
+        <v>22.56139409319307</v>
       </c>
       <c r="C113" t="n">
-        <v>-35.69109301642226</v>
+        <v>21.07881799172201</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>66.70286875804362</v>
+        <v>29.61866154473643</v>
       </c>
       <c r="B114" t="n">
-        <v>-19.67730141991342</v>
+        <v>-34.25838516955299</v>
       </c>
       <c r="C114" t="n">
-        <v>22.85926902917673</v>
+        <v>28.86806669414479</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>33.13144713802581</v>
+        <v>22.30350128212257</v>
       </c>
       <c r="B115" t="n">
-        <v>-11.61733271801008</v>
+        <v>-14.96975011380285</v>
       </c>
       <c r="C115" t="n">
-        <v>22.92153210716554</v>
+        <v>-20.72025123937842</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>42.49257772535314</v>
+        <v>21.23493643482124</v>
       </c>
       <c r="B116" t="n">
-        <v>-26.53638450030368</v>
+        <v>26.32250376602082</v>
       </c>
       <c r="C116" t="n">
-        <v>31.55743185625267</v>
+        <v>22.54425395690956</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-18.21315657534178</v>
+        <v>-30.45578178442369</v>
       </c>
       <c r="B117" t="n">
-        <v>-14.74701490668063</v>
+        <v>24.58607048140163</v>
       </c>
       <c r="C117" t="n">
-        <v>-25.0382389887081</v>
+        <v>32.94532964462942</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>17.60038122249245</v>
+        <v>19.41466380486993</v>
       </c>
       <c r="B118" t="n">
-        <v>4.858843752629689</v>
+        <v>-21.22297659063009</v>
       </c>
       <c r="C118" t="n">
-        <v>11.14599630082674</v>
+        <v>15.1074862131532</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>16.25299213165535</v>
+        <v>23.37508597461843</v>
       </c>
       <c r="B119" t="n">
-        <v>-26.4730049009211</v>
+        <v>31.40576923068071</v>
       </c>
       <c r="C119" t="n">
-        <v>58.70391064130983</v>
+        <v>32.8022852851221</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>41.48787902828487</v>
+        <v>29.7472549960249</v>
       </c>
       <c r="B120" t="n">
-        <v>34.66732921109472</v>
+        <v>27.75133392728467</v>
       </c>
       <c r="C120" t="n">
-        <v>-19.54581987368841</v>
+        <v>-15.61196757035418</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>51.27631407237349</v>
+        <v>-23.14028164452597</v>
       </c>
       <c r="B121" t="n">
-        <v>-20.70124157487212</v>
+        <v>-12.54047537819488</v>
       </c>
       <c r="C121" t="n">
-        <v>-28.29430192202467</v>
+        <v>33.48714419687096</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-29.28945014289181</v>
+        <v>20.20895980023662</v>
       </c>
       <c r="B122" t="n">
-        <v>-28.694474724792</v>
+        <v>-22.41249140606434</v>
       </c>
       <c r="C122" t="n">
-        <v>-28.7683419927518</v>
+        <v>-19.10333970638946</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43.074613389912</v>
+        <v>30.13498034709552</v>
       </c>
       <c r="B123" t="n">
-        <v>-6.082699844745087</v>
+        <v>19.3879305528999</v>
       </c>
       <c r="C123" t="n">
-        <v>8.226751129449299</v>
+        <v>-24.05675823520702</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-29.16283335765844</v>
+        <v>-24.62243234099086</v>
       </c>
       <c r="B124" t="n">
-        <v>27.3998469048692</v>
+        <v>29.92328930528431</v>
       </c>
       <c r="C124" t="n">
-        <v>-12.14903122640141</v>
+        <v>-25.85925471965234</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>16.71978284102391</v>
+        <v>25.41158927281841</v>
       </c>
       <c r="B125" t="n">
-        <v>37.90246054409006</v>
+        <v>31.57798019322564</v>
       </c>
       <c r="C125" t="n">
-        <v>-24.54645313268866</v>
+        <v>22.17052633473846</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-6.248865003595215</v>
+        <v>22.59289901804727</v>
       </c>
       <c r="B126" t="n">
-        <v>-24.89882189779624</v>
+        <v>23.90905949347475</v>
       </c>
       <c r="C126" t="n">
-        <v>33.37119170467</v>
+        <v>6.21182548149368</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-21.53161495256581</v>
+        <v>29.4677413004361</v>
       </c>
       <c r="B127" t="n">
-        <v>41.85329726092701</v>
+        <v>33.65559788582236</v>
       </c>
       <c r="C127" t="n">
-        <v>-29.93639724387931</v>
+        <v>-24.91883679960699</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>23.42685452484917</v>
+        <v>-32.43736290863399</v>
       </c>
       <c r="B128" t="n">
-        <v>15.96101263953497</v>
+        <v>-35.259312308349</v>
       </c>
       <c r="C128" t="n">
-        <v>8.330047890076884</v>
+        <v>26.85411969343476</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-29.91488556099091</v>
+        <v>33.20600368974631</v>
       </c>
       <c r="B129" t="n">
-        <v>-35.54628682922711</v>
+        <v>-3.745830328980763</v>
       </c>
       <c r="C129" t="n">
-        <v>-25.77147718714838</v>
+        <v>-23.79717727153471</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-33.93898653043871</v>
+        <v>14.4641734427036</v>
       </c>
       <c r="B130" t="n">
-        <v>-5.424521192398957</v>
+        <v>-32.56404189863713</v>
       </c>
       <c r="C130" t="n">
-        <v>-13.71740540906343</v>
+        <v>20.23428744239436</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>16.59284867629214</v>
+        <v>-24.05897325505373</v>
       </c>
       <c r="B131" t="n">
-        <v>55.3323622113034</v>
+        <v>-25.17735538407073</v>
       </c>
       <c r="C131" t="n">
-        <v>-16.98762639102216</v>
+        <v>-23.78498240266851</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>63.9537849903267</v>
+        <v>-31.45649845970405</v>
       </c>
       <c r="B132" t="n">
-        <v>-43.01478865159479</v>
+        <v>42.03472088746435</v>
       </c>
       <c r="C132" t="n">
-        <v>-22.794672007519</v>
+        <v>21.69422807265735</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-26.47684595631813</v>
+        <v>28.28317544365495</v>
       </c>
       <c r="B133" t="n">
-        <v>44.72180352790207</v>
+        <v>23.56200065811303</v>
       </c>
       <c r="C133" t="n">
-        <v>61.50381527331363</v>
+        <v>23.3066628874008</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-40.64939332981088</v>
+        <v>-27.1487407192039</v>
       </c>
       <c r="B134" t="n">
-        <v>25.66441406149431</v>
+        <v>-22.1288182982484</v>
       </c>
       <c r="C134" t="n">
-        <v>41.7735131573196</v>
+        <v>33.62766679091433</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-11.10052213161336</v>
+        <v>-18.89899499229011</v>
       </c>
       <c r="B135" t="n">
-        <v>-24.77232624645682</v>
+        <v>-24.96056782899444</v>
       </c>
       <c r="C135" t="n">
-        <v>-30.99062112225197</v>
+        <v>29.91722422263437</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-34.94208058583462</v>
+        <v>-9.781936676958034</v>
       </c>
       <c r="B136" t="n">
-        <v>55.42842289461904</v>
+        <v>19.79309277380216</v>
       </c>
       <c r="C136" t="n">
-        <v>-28.34305832405132</v>
+        <v>29.88570527447031</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>48.98388657460779</v>
+        <v>-7.882763444425285</v>
       </c>
       <c r="B137" t="n">
-        <v>11.986505363898</v>
+        <v>-28.42749643286357</v>
       </c>
       <c r="C137" t="n">
-        <v>-13.48307669973257</v>
+        <v>17.20510940517661</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>15.11366795908147</v>
+        <v>-33.11488241895851</v>
       </c>
       <c r="B138" t="n">
-        <v>25.3856047484305</v>
+        <v>23.18886581971657</v>
       </c>
       <c r="C138" t="n">
-        <v>28.87225606638021</v>
+        <v>-22.52566848524649</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>14.46339575574074</v>
+        <v>14.02948022597261</v>
       </c>
       <c r="B139" t="n">
-        <v>17.80408647767421</v>
+        <v>-18.36537463643019</v>
       </c>
       <c r="C139" t="n">
-        <v>-3.296389536875181</v>
+        <v>-19.52144551333573</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>16.42218599556185</v>
+        <v>30.04275210620747</v>
       </c>
       <c r="B140" t="n">
-        <v>-13.06073282183564</v>
+        <v>31.63958132123495</v>
       </c>
       <c r="C140" t="n">
-        <v>43.76498398847459</v>
+        <v>-18.34280038287968</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-40.0575906100412</v>
+        <v>-16.97488377296991</v>
       </c>
       <c r="B141" t="n">
-        <v>-24.09979112283996</v>
+        <v>25.66166078235802</v>
       </c>
       <c r="C141" t="n">
-        <v>-22.67390822341419</v>
+        <v>26.21096061396624</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-25.02460724713801</v>
+        <v>-20.35877545505627</v>
       </c>
       <c r="B142" t="n">
-        <v>14.68779407570325</v>
+        <v>13.74610777722534</v>
       </c>
       <c r="C142" t="n">
-        <v>-18.85363940857534</v>
+        <v>33.97658878143116</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>17.2952890182421</v>
+        <v>-39.53350271246077</v>
       </c>
       <c r="B143" t="n">
-        <v>31.19149308738034</v>
+        <v>19.51127537329253</v>
       </c>
       <c r="C143" t="n">
-        <v>47.83730264503598</v>
+        <v>-21.98746225451371</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-17.1629292003239</v>
+        <v>-13.89423185606723</v>
       </c>
       <c r="B144" t="n">
-        <v>-18.51043938145673</v>
+        <v>24.09834893571982</v>
       </c>
       <c r="C144" t="n">
-        <v>62.88307367894664</v>
+        <v>19.94082492970963</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-22.34458460661943</v>
+        <v>25.20253100165129</v>
       </c>
       <c r="B145" t="n">
-        <v>-27.95259106565761</v>
+        <v>-37.21047344695311</v>
       </c>
       <c r="C145" t="n">
-        <v>37.60429129270501</v>
+        <v>9.492989463592844</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>49.17070258712285</v>
+        <v>-44.89401781074605</v>
       </c>
       <c r="B146" t="n">
-        <v>-36.56424949099218</v>
+        <v>23.94629265551874</v>
       </c>
       <c r="C146" t="n">
-        <v>-19.47772839124433</v>
+        <v>-20.12518336819477</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-23.50891335792263</v>
+        <v>-30.19543903259752</v>
       </c>
       <c r="B147" t="n">
-        <v>80.789818189572</v>
+        <v>20.81501339150511</v>
       </c>
       <c r="C147" t="n">
-        <v>-31.69553007552137</v>
+        <v>27.31838804919937</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-24.03698418432677</v>
+        <v>18.74787257765145</v>
       </c>
       <c r="B148" t="n">
-        <v>-28.15656715744332</v>
+        <v>23.30800058076793</v>
       </c>
       <c r="C148" t="n">
-        <v>-16.40099018642876</v>
+        <v>-34.17430812813883</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-23.68315212269053</v>
+        <v>24.77411510850844</v>
       </c>
       <c r="B149" t="n">
-        <v>-35.8006862116976</v>
+        <v>-15.41565714041763</v>
       </c>
       <c r="C149" t="n">
-        <v>-19.34148107220789</v>
+        <v>-17.5345956651164</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-21.89922425291844</v>
+        <v>-32.82264440088002</v>
       </c>
       <c r="B150" t="n">
-        <v>-11.36604927070919</v>
+        <v>-4.643746520271598</v>
       </c>
       <c r="C150" t="n">
-        <v>5.091722077763451</v>
+        <v>24.43958015578091</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-15.98578637547262</v>
+        <v>28.30322321413113</v>
       </c>
       <c r="B151" t="n">
-        <v>72.81143719769034</v>
+        <v>17.51456402668276</v>
       </c>
       <c r="C151" t="n">
-        <v>-14.29331726324386</v>
+        <v>27.06355528484587</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-25.46133059698366</v>
+        <v>23.06326453091532</v>
       </c>
       <c r="B2" t="n">
-        <v>-21.6071275714049</v>
+        <v>26.95002433629081</v>
       </c>
       <c r="C2" t="n">
-        <v>51.81068751496903</v>
+        <v>40.96070905003045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-32.776289319775</v>
+        <v>-34.04129857510141</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.401715871469805</v>
+        <v>11.11827618199282</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.456999499224132</v>
+        <v>20.37914533855344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-28.89702295314788</v>
+        <v>18.67542148055562</v>
       </c>
       <c r="B4" t="n">
-        <v>-18.49540681596422</v>
+        <v>14.23850393315536</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.0616005895848</v>
+        <v>16.85162231047375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-38.66573185069998</v>
+        <v>-29.94878291550114</v>
       </c>
       <c r="B5" t="n">
-        <v>-35.6498409772873</v>
+        <v>-36.31089396966631</v>
       </c>
       <c r="C5" t="n">
-        <v>-34.40325223927033</v>
+        <v>32.69671640838766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20.70931056543559</v>
+        <v>30.23794188644729</v>
       </c>
       <c r="B6" t="n">
-        <v>-21.90312097522095</v>
+        <v>-26.33358714816319</v>
       </c>
       <c r="C6" t="n">
-        <v>-27.62692930609735</v>
+        <v>-36.08884191754717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-28.51970317519648</v>
+        <v>16.97119818081054</v>
       </c>
       <c r="B7" t="n">
-        <v>-25.56910615228125</v>
+        <v>28.13029504495276</v>
       </c>
       <c r="C7" t="n">
-        <v>-21.73622767775722</v>
+        <v>-10.61654874654859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.18252853252431</v>
+        <v>22.85930122260318</v>
       </c>
       <c r="B8" t="n">
-        <v>-34.45232975875095</v>
+        <v>20.48934798099458</v>
       </c>
       <c r="C8" t="n">
-        <v>28.51723734723716</v>
+        <v>-18.34681046567082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-19.82703872926877</v>
+        <v>32.49630569939559</v>
       </c>
       <c r="B9" t="n">
-        <v>9.265309803054052</v>
+        <v>41.64316850780002</v>
       </c>
       <c r="C9" t="n">
-        <v>11.88683036609257</v>
+        <v>-26.60858647682075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.59187733897394</v>
+        <v>-22.40407547112947</v>
       </c>
       <c r="B10" t="n">
-        <v>-16.29500896665268</v>
+        <v>-44.71429239344241</v>
       </c>
       <c r="C10" t="n">
-        <v>-16.81241796097497</v>
+        <v>23.26059346000791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-25.58527963883081</v>
+        <v>-15.77279539529881</v>
       </c>
       <c r="B11" t="n">
-        <v>-47.43032791296913</v>
+        <v>-36.14298175376096</v>
       </c>
       <c r="C11" t="n">
-        <v>37.48211461910344</v>
+        <v>33.78968174889638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-36.73451936318019</v>
+        <v>27.06664524933084</v>
       </c>
       <c r="B12" t="n">
-        <v>-24.3801055057855</v>
+        <v>-38.0521448385196</v>
       </c>
       <c r="C12" t="n">
-        <v>18.60056353987674</v>
+        <v>10.40525502103892</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-40.59982139011755</v>
+        <v>30.15650360337716</v>
       </c>
       <c r="B13" t="n">
-        <v>-11.15914676723029</v>
+        <v>-24.4555395090164</v>
       </c>
       <c r="C13" t="n">
-        <v>-35.46001983129896</v>
+        <v>20.55681441339397</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-18.41104643899012</v>
+        <v>17.33206193422691</v>
       </c>
       <c r="B14" t="n">
-        <v>64.5812891783455</v>
+        <v>-39.50958659668314</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.19298649734067</v>
+        <v>10.23771902843281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-18.50913380064112</v>
+        <v>33.3645423024436</v>
       </c>
       <c r="B15" t="n">
-        <v>6.325009655573933</v>
+        <v>-18.57240875634367</v>
       </c>
       <c r="C15" t="n">
-        <v>-19.86436094609568</v>
+        <v>-42.04718299844858</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-24.82595981063492</v>
+        <v>32.42330361070002</v>
       </c>
       <c r="B16" t="n">
-        <v>26.95383913194142</v>
+        <v>-24.28919824986382</v>
       </c>
       <c r="C16" t="n">
-        <v>38.72796477019075</v>
+        <v>17.75831920742527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-30.79706879880699</v>
+        <v>-27.36951663763592</v>
       </c>
       <c r="B17" t="n">
-        <v>-27.66267867130041</v>
+        <v>4.777596570368106</v>
       </c>
       <c r="C17" t="n">
-        <v>-27.38647106772801</v>
+        <v>-28.67976386116839</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0883104984695465</v>
+        <v>-23.74582396969821</v>
       </c>
       <c r="B18" t="n">
-        <v>-21.25888023982907</v>
+        <v>17.32490371129561</v>
       </c>
       <c r="C18" t="n">
-        <v>-16.18446312147258</v>
+        <v>-23.96906213728457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-15.66192048820643</v>
+        <v>31.70409507110142</v>
       </c>
       <c r="B19" t="n">
-        <v>27.35082824606921</v>
+        <v>24.10172809329023</v>
       </c>
       <c r="C19" t="n">
-        <v>51.36133267300698</v>
+        <v>-28.42895021295572</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15.09200598582257</v>
+        <v>24.59240786538883</v>
       </c>
       <c r="B20" t="n">
-        <v>44.19606063914387</v>
+        <v>20.96833628387771</v>
       </c>
       <c r="C20" t="n">
-        <v>11.4550476885692</v>
+        <v>15.54694164314983</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32.1623434496219</v>
+        <v>28.88585554845037</v>
       </c>
       <c r="B21" t="n">
-        <v>52.19719930911012</v>
+        <v>38.56189208416183</v>
       </c>
       <c r="C21" t="n">
-        <v>-34.00483675512424</v>
+        <v>18.10596264538735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-23.79169470274593</v>
+        <v>-20.98800513698577</v>
       </c>
       <c r="B22" t="n">
-        <v>-31.94116987968206</v>
+        <v>35.81825568591125</v>
       </c>
       <c r="C22" t="n">
-        <v>12.76039533162223</v>
+        <v>-39.31344430882577</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.67009301763803</v>
+        <v>27.46246531401128</v>
       </c>
       <c r="B23" t="n">
-        <v>26.11382287607899</v>
+        <v>-31.0597156045648</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.11375277158932</v>
+        <v>9.559188156695722</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-15.85597215528054</v>
+        <v>14.35898484198827</v>
       </c>
       <c r="B24" t="n">
-        <v>-35.39739084249595</v>
+        <v>28.18029116880595</v>
       </c>
       <c r="C24" t="n">
-        <v>-14.05549835580335</v>
+        <v>-20.78156356700449</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-18.85754406233157</v>
+        <v>39.84143525908445</v>
       </c>
       <c r="B25" t="n">
-        <v>34.35299823549853</v>
+        <v>20.28245663607338</v>
       </c>
       <c r="C25" t="n">
-        <v>-30.3435155557668</v>
+        <v>-41.18546245142485</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-22.15185448094961</v>
+        <v>-29.65176488166967</v>
       </c>
       <c r="B26" t="n">
-        <v>33.91787592246374</v>
+        <v>27.95625772809169</v>
       </c>
       <c r="C26" t="n">
-        <v>-27.67563999936505</v>
+        <v>7.768707667321245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24.11295291209876</v>
+        <v>-40.04805641872924</v>
       </c>
       <c r="B27" t="n">
-        <v>48.78679892165121</v>
+        <v>30.42298035523431</v>
       </c>
       <c r="C27" t="n">
-        <v>-14.77361596174569</v>
+        <v>-17.07172131896133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>52.45804771109304</v>
+        <v>-24.08886836932081</v>
       </c>
       <c r="B28" t="n">
-        <v>-28.19299915922445</v>
+        <v>26.81084584576255</v>
       </c>
       <c r="C28" t="n">
-        <v>-24.85880205421337</v>
+        <v>-26.06175117089019</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.05716745210754</v>
+        <v>25.51770907144324</v>
       </c>
       <c r="B29" t="n">
-        <v>-31.08149111870661</v>
+        <v>26.38143607523486</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.38065136873256</v>
+        <v>29.29134915026902</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-4.985566894619565</v>
+        <v>-25.7902363083772</v>
       </c>
       <c r="B30" t="n">
-        <v>-6.803967462058535</v>
+        <v>28.75411850005553</v>
       </c>
       <c r="C30" t="n">
-        <v>55.2052711271632</v>
+        <v>-14.20399275282194</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-27.79656492311394</v>
+        <v>-42.74627255801546</v>
       </c>
       <c r="B31" t="n">
-        <v>-20.49337760176183</v>
+        <v>-35.09232598778412</v>
       </c>
       <c r="C31" t="n">
-        <v>-18.26033292242044</v>
+        <v>24.54773721021681</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55.51717762964269</v>
+        <v>-19.76457243423842</v>
       </c>
       <c r="B32" t="n">
-        <v>-35.34120003323848</v>
+        <v>-21.71578451580451</v>
       </c>
       <c r="C32" t="n">
-        <v>45.08241711498169</v>
+        <v>-30.00065776548146</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11.74057736753029</v>
+        <v>28.40727900265034</v>
       </c>
       <c r="B33" t="n">
-        <v>20.42721176816237</v>
+        <v>-38.18505610587536</v>
       </c>
       <c r="C33" t="n">
-        <v>-27.75240892529868</v>
+        <v>34.85354839693129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-28.61781727175055</v>
+        <v>-17.68442047095795</v>
       </c>
       <c r="B34" t="n">
-        <v>-20.80846556578511</v>
+        <v>21.60771994753057</v>
       </c>
       <c r="C34" t="n">
-        <v>-9.722163429969601</v>
+        <v>-21.9567741852378</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.74566274873263</v>
+        <v>-25.45101444855464</v>
       </c>
       <c r="B35" t="n">
-        <v>49.21581233185763</v>
+        <v>-36.70249297689857</v>
       </c>
       <c r="C35" t="n">
-        <v>2.128162031539135</v>
+        <v>-32.96639525196235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>31.56496451678727</v>
+        <v>-18.40897072728438</v>
       </c>
       <c r="B36" t="n">
-        <v>-37.32065215227689</v>
+        <v>-39.96676830955523</v>
       </c>
       <c r="C36" t="n">
-        <v>-28.4868119074506</v>
+        <v>-37.36861497746709</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-24.56018358849162</v>
+        <v>-30.09476370740831</v>
       </c>
       <c r="B37" t="n">
-        <v>30.94641585427703</v>
+        <v>13.7699641020712</v>
       </c>
       <c r="C37" t="n">
-        <v>15.57170013544959</v>
+        <v>-36.35229890837111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.678950714372913</v>
+        <v>-17.88099522028397</v>
       </c>
       <c r="B38" t="n">
-        <v>28.64556288768164</v>
+        <v>-36.73662256806069</v>
       </c>
       <c r="C38" t="n">
-        <v>-18.61513624009399</v>
+        <v>-15.3859770450834</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>16.59923309889195</v>
+        <v>-20.48318059729957</v>
       </c>
       <c r="B39" t="n">
-        <v>-18.84240048400072</v>
+        <v>-32.69469343942011</v>
       </c>
       <c r="C39" t="n">
-        <v>-37.8093521515186</v>
+        <v>-19.31508443754451</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-30.02617123996182</v>
+        <v>-29.20547825697576</v>
       </c>
       <c r="B40" t="n">
-        <v>-20.53562030400206</v>
+        <v>39.30839677244511</v>
       </c>
       <c r="C40" t="n">
-        <v>13.98541456382263</v>
+        <v>-25.06470804774206</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-21.92691021689081</v>
+        <v>30.22927310327641</v>
       </c>
       <c r="B41" t="n">
-        <v>31.17310432825366</v>
+        <v>-19.68852339596836</v>
       </c>
       <c r="C41" t="n">
-        <v>-21.89545929744054</v>
+        <v>-34.11258112460791</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-22.83479284599255</v>
+        <v>-46.53301354088451</v>
       </c>
       <c r="B42" t="n">
-        <v>-7.316801146597903</v>
+        <v>-37.39712899271132</v>
       </c>
       <c r="C42" t="n">
-        <v>-45.82851652242828</v>
+        <v>36.86953795479653</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-21.49144038277069</v>
+        <v>13.79735866781627</v>
       </c>
       <c r="B43" t="n">
-        <v>-36.09297188079421</v>
+        <v>-29.6032114802215</v>
       </c>
       <c r="C43" t="n">
-        <v>-18.46565865041056</v>
+        <v>7.326373100037089</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11.65534807228791</v>
+        <v>31.76111078923859</v>
       </c>
       <c r="B44" t="n">
-        <v>18.73111162154732</v>
+        <v>-15.15655653105852</v>
       </c>
       <c r="C44" t="n">
-        <v>-25.80329084068859</v>
+        <v>-28.68104621929907</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-18.04883804564782</v>
+        <v>-18.62875467102691</v>
       </c>
       <c r="B45" t="n">
-        <v>26.02863472084501</v>
+        <v>-21.84834582990964</v>
       </c>
       <c r="C45" t="n">
-        <v>81.09917746441087</v>
+        <v>-21.13132171642229</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.56390471569807</v>
+        <v>-33.52316427997966</v>
       </c>
       <c r="B46" t="n">
-        <v>-23.81690740534111</v>
+        <v>-39.62462281181096</v>
       </c>
       <c r="C46" t="n">
-        <v>84.63206742219609</v>
+        <v>-18.25659603175378</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>54.5738950770047</v>
+        <v>-27.63749959806026</v>
       </c>
       <c r="B47" t="n">
-        <v>34.22771883808914</v>
+        <v>26.46566069301999</v>
       </c>
       <c r="C47" t="n">
-        <v>-29.61480260961122</v>
+        <v>23.74656927300079</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-37.46409867164559</v>
+        <v>-16.74672539629589</v>
       </c>
       <c r="B48" t="n">
-        <v>-19.39524009156562</v>
+        <v>-21.73837609971607</v>
       </c>
       <c r="C48" t="n">
-        <v>11.66388091077624</v>
+        <v>23.36219945945416</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-18.5939409874023</v>
+        <v>-20.29717087544186</v>
       </c>
       <c r="B49" t="n">
-        <v>38.4302231008002</v>
+        <v>17.49419499357111</v>
       </c>
       <c r="C49" t="n">
-        <v>-34.07567228681212</v>
+        <v>-36.10465682687877</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17.35189836123576</v>
+        <v>-21.25343769445411</v>
       </c>
       <c r="B50" t="n">
-        <v>-25.86180622125473</v>
+        <v>23.95445588351506</v>
       </c>
       <c r="C50" t="n">
-        <v>-27.24736930168129</v>
+        <v>21.73513868024703</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>52.56948029857408</v>
+        <v>16.87615186573013</v>
       </c>
       <c r="B51" t="n">
-        <v>-32.62949493892313</v>
+        <v>15.31970568117662</v>
       </c>
       <c r="C51" t="n">
-        <v>-15.45586813275194</v>
+        <v>30.51376818474344</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.673547190424809</v>
+        <v>-14.79805107652833</v>
       </c>
       <c r="B52" t="n">
-        <v>-25.25872158150679</v>
+        <v>35.89011394659113</v>
       </c>
       <c r="C52" t="n">
-        <v>14.73154540361717</v>
+        <v>-22.33039724770965</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.7647440831336217</v>
+        <v>26.3633729328613</v>
       </c>
       <c r="B53" t="n">
-        <v>60.21693052163133</v>
+        <v>4.873501695797107</v>
       </c>
       <c r="C53" t="n">
-        <v>39.49608773062651</v>
+        <v>20.95620594091289</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-20.58453147306804</v>
+        <v>-26.47784905512003</v>
       </c>
       <c r="B54" t="n">
-        <v>39.89552416850799</v>
+        <v>26.81830737573206</v>
       </c>
       <c r="C54" t="n">
-        <v>21.22691325246457</v>
+        <v>33.23718302340791</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.668264131937323</v>
+        <v>-31.29809439467524</v>
       </c>
       <c r="B55" t="n">
-        <v>-27.08053293867719</v>
+        <v>22.63000500654831</v>
       </c>
       <c r="C55" t="n">
-        <v>-28.56519495065066</v>
+        <v>23.717516788708</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-29.1848604091102</v>
+        <v>-36.16477495211894</v>
       </c>
       <c r="B56" t="n">
-        <v>16.48014132373503</v>
+        <v>25.11470326485678</v>
       </c>
       <c r="C56" t="n">
-        <v>29.08793881655053</v>
+        <v>13.28070849797019</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>63.13636308958458</v>
+        <v>10.25281847888105</v>
       </c>
       <c r="B57" t="n">
-        <v>-16.08405967393784</v>
+        <v>-36.24127435487761</v>
       </c>
       <c r="C57" t="n">
-        <v>52.10823902673866</v>
+        <v>-33.59965227569864</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-21.12531607111773</v>
+        <v>25.1490193615848</v>
       </c>
       <c r="B58" t="n">
-        <v>-26.45264732371698</v>
+        <v>-28.58249437486974</v>
       </c>
       <c r="C58" t="n">
-        <v>33.90488051974629</v>
+        <v>-24.49472721841869</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-24.77730725953221</v>
+        <v>-30.36215553550204</v>
       </c>
       <c r="B59" t="n">
-        <v>-28.57903242324765</v>
+        <v>-43.50298917028245</v>
       </c>
       <c r="C59" t="n">
-        <v>-14.77909926581919</v>
+        <v>27.2689415445123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-28.38412724181233</v>
+        <v>-37.28313322599767</v>
       </c>
       <c r="B60" t="n">
-        <v>30.70353224211133</v>
+        <v>-21.85730235012962</v>
       </c>
       <c r="C60" t="n">
-        <v>-17.43985256293771</v>
+        <v>12.92584814970331</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.086768789215392</v>
+        <v>-28.25320325450119</v>
       </c>
       <c r="B61" t="n">
-        <v>33.21428672612452</v>
+        <v>10.30103268844584</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.4683657097444472</v>
+        <v>20.35333989881973</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-15.78837568753872</v>
+        <v>33.79526771555454</v>
       </c>
       <c r="B62" t="n">
-        <v>27.83242959031555</v>
+        <v>-29.80502453838624</v>
       </c>
       <c r="C62" t="n">
-        <v>29.6367459099466</v>
+        <v>-43.79266333124349</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>26.50729212927187</v>
+        <v>21.87422217090625</v>
       </c>
       <c r="B63" t="n">
-        <v>59.52240948854348</v>
+        <v>-30.97630606373054</v>
       </c>
       <c r="C63" t="n">
-        <v>40.47251279719992</v>
+        <v>20.55209521488266</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-16.90425491887626</v>
+        <v>15.17903332797761</v>
       </c>
       <c r="B64" t="n">
-        <v>36.87602003602994</v>
+        <v>27.6301547927659</v>
       </c>
       <c r="C64" t="n">
-        <v>40.86521444406542</v>
+        <v>-21.94768103917922</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.823502875542999</v>
+        <v>18.10662122030407</v>
       </c>
       <c r="B65" t="n">
-        <v>-35.79828124201367</v>
+        <v>-12.85074607856115</v>
       </c>
       <c r="C65" t="n">
-        <v>-18.40511648506568</v>
+        <v>-21.32818411662359</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>55.5919438000271</v>
+        <v>-22.62900534216101</v>
       </c>
       <c r="B66" t="n">
-        <v>-19.36980864175008</v>
+        <v>30.58910608174692</v>
       </c>
       <c r="C66" t="n">
-        <v>-14.44027860636591</v>
+        <v>-22.43412526417983</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-14.45562770051566</v>
+        <v>-3.800840145523769</v>
       </c>
       <c r="B67" t="n">
-        <v>31.16630732236793</v>
+        <v>17.47685227403005</v>
       </c>
       <c r="C67" t="n">
-        <v>-21.05936175526473</v>
+        <v>23.38225423355252</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-15.81100529840022</v>
+        <v>-28.53616812369021</v>
       </c>
       <c r="B68" t="n">
-        <v>-35.89065585101268</v>
+        <v>19.27645591611185</v>
       </c>
       <c r="C68" t="n">
-        <v>-25.33493069354087</v>
+        <v>21.16630134309131</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>36.21639270795414</v>
+        <v>27.9701625011675</v>
       </c>
       <c r="B69" t="n">
-        <v>26.51938481431394</v>
+        <v>-11.13198145361158</v>
       </c>
       <c r="C69" t="n">
-        <v>3.40664852201669</v>
+        <v>-34.15617053729374</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>44.2936224226301</v>
+        <v>-29.05617897413303</v>
       </c>
       <c r="B70" t="n">
-        <v>-18.51080528871411</v>
+        <v>-34.31722201995582</v>
       </c>
       <c r="C70" t="n">
-        <v>-26.39065913343304</v>
+        <v>34.59616359567663</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-5.099205919989998</v>
+        <v>-25.28904053927881</v>
       </c>
       <c r="B71" t="n">
-        <v>-21.59181484120112</v>
+        <v>30.23594486688106</v>
       </c>
       <c r="C71" t="n">
-        <v>31.15267361949312</v>
+        <v>-23.16197132762689</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7.398684282911197</v>
+        <v>-19.48340789259003</v>
       </c>
       <c r="B72" t="n">
-        <v>-18.64717639103873</v>
+        <v>14.88058171455313</v>
       </c>
       <c r="C72" t="n">
-        <v>60.59458169742299</v>
+        <v>-23.36384763911856</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-18.18267150674245</v>
+        <v>27.56175033299061</v>
       </c>
       <c r="B73" t="n">
-        <v>-41.62704195560953</v>
+        <v>-26.97767255036504</v>
       </c>
       <c r="C73" t="n">
-        <v>17.16251850282537</v>
+        <v>16.47275976470071</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>31.05654900638916</v>
+        <v>41.22432266679083</v>
       </c>
       <c r="B74" t="n">
-        <v>-35.01218742176284</v>
+        <v>26.13259584544652</v>
       </c>
       <c r="C74" t="n">
-        <v>34.04593476823286</v>
+        <v>26.90098268575153</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12.74016964539117</v>
+        <v>35.42692765420907</v>
       </c>
       <c r="B75" t="n">
-        <v>16.08167024495521</v>
+        <v>-0.2656677477639769</v>
       </c>
       <c r="C75" t="n">
-        <v>-31.2122275528337</v>
+        <v>17.05646745060097</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-13.10150658282292</v>
+        <v>27.07876186628956</v>
       </c>
       <c r="B76" t="n">
-        <v>1.27039755457082</v>
+        <v>29.88816880101636</v>
       </c>
       <c r="C76" t="n">
-        <v>17.33369635197112</v>
+        <v>-30.08442919457039</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-22.07917344445609</v>
+        <v>-16.70048233387442</v>
       </c>
       <c r="B77" t="n">
-        <v>-42.41173402040436</v>
+        <v>-37.07541619572775</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.01096191455142</v>
+        <v>-24.308795005821</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.826995615788446</v>
+        <v>26.48144694240091</v>
       </c>
       <c r="B78" t="n">
-        <v>26.33361102293682</v>
+        <v>-19.29094606276388</v>
       </c>
       <c r="C78" t="n">
-        <v>-16.1278049700252</v>
+        <v>18.95861812098241</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-27.53372407774596</v>
+        <v>19.50563387731939</v>
       </c>
       <c r="B79" t="n">
-        <v>-21.63741480923235</v>
+        <v>-40.10218282055226</v>
       </c>
       <c r="C79" t="n">
-        <v>9.895645147438396</v>
+        <v>26.93020138168328</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-28.66594526059103</v>
+        <v>-30.44727133081224</v>
       </c>
       <c r="B80" t="n">
-        <v>40.51705574100626</v>
+        <v>-28.14525346131227</v>
       </c>
       <c r="C80" t="n">
-        <v>27.07580052511486</v>
+        <v>38.78000826099522</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>29.62549325124676</v>
+        <v>-30.73002611021023</v>
       </c>
       <c r="B81" t="n">
-        <v>66.80172070686929</v>
+        <v>36.81272757479431</v>
       </c>
       <c r="C81" t="n">
-        <v>-24.44940382860077</v>
+        <v>-11.92318855976901</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>37.06993327412201</v>
+        <v>18.5598494870654</v>
       </c>
       <c r="B82" t="n">
-        <v>30.60694469900867</v>
+        <v>-23.94886954714412</v>
       </c>
       <c r="C82" t="n">
-        <v>-32.80488940569237</v>
+        <v>24.08350558337443</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-43.45021427507938</v>
+        <v>16.01927510033987</v>
       </c>
       <c r="B83" t="n">
-        <v>-38.39461108332515</v>
+        <v>-41.2283207106803</v>
       </c>
       <c r="C83" t="n">
-        <v>27.29068206453416</v>
+        <v>-21.02078582362643</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9.210112803762968</v>
+        <v>20.60757838546616</v>
       </c>
       <c r="B84" t="n">
-        <v>41.19881672893251</v>
+        <v>-43.23962498690418</v>
       </c>
       <c r="C84" t="n">
-        <v>58.34930847222194</v>
+        <v>35.73030396244125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>95.00426102577997</v>
+        <v>9.52497920884842</v>
       </c>
       <c r="B85" t="n">
-        <v>85.64286833975417</v>
+        <v>-32.9068542299985</v>
       </c>
       <c r="C85" t="n">
-        <v>-15.55279629757572</v>
+        <v>-35.1045684960073</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-25.19321811237169</v>
+        <v>38.17575378147156</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5177849016908005</v>
+        <v>27.34968203291977</v>
       </c>
       <c r="C86" t="n">
-        <v>-26.47334920756326</v>
+        <v>-21.26284719121388</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>44.09513117206077</v>
+        <v>22.604424616756</v>
       </c>
       <c r="B87" t="n">
-        <v>-39.05019880350604</v>
+        <v>24.50634148477586</v>
       </c>
       <c r="C87" t="n">
-        <v>-25.67822302417692</v>
+        <v>25.69916602855677</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-26.52816365968638</v>
+        <v>24.32780272833936</v>
       </c>
       <c r="B88" t="n">
-        <v>53.74530456385056</v>
+        <v>-24.92174945374655</v>
       </c>
       <c r="C88" t="n">
-        <v>-48.1574755196926</v>
+        <v>-19.33477238916877</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-19.83867346874791</v>
+        <v>31.62113933762497</v>
       </c>
       <c r="B89" t="n">
-        <v>-26.55442697754914</v>
+        <v>-24.6955223631859</v>
       </c>
       <c r="C89" t="n">
-        <v>64.31759460269247</v>
+        <v>-29.11241346572632</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-7.589650483144147</v>
+        <v>-21.92372122624647</v>
       </c>
       <c r="B90" t="n">
-        <v>13.956055033092</v>
+        <v>-22.47149898309504</v>
       </c>
       <c r="C90" t="n">
-        <v>-28.85299907904486</v>
+        <v>29.7439897606159</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43.58810367861514</v>
+        <v>34.31917003854251</v>
       </c>
       <c r="B91" t="n">
-        <v>-34.49775210639319</v>
+        <v>-23.72265289094875</v>
       </c>
       <c r="C91" t="n">
-        <v>-21.84647608956816</v>
+        <v>-29.80388651376649</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.16055731997509</v>
+        <v>-19.62590411021216</v>
       </c>
       <c r="B92" t="n">
-        <v>27.84983599708764</v>
+        <v>-22.44881037631364</v>
       </c>
       <c r="C92" t="n">
-        <v>-25.80114049491374</v>
+        <v>-25.72622670055345</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-29.53436305403509</v>
+        <v>36.45671225611355</v>
       </c>
       <c r="B93" t="n">
-        <v>-18.70868072994678</v>
+        <v>27.84609874474307</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.88486962412338</v>
+        <v>30.23884958586597</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-26.06299444529822</v>
+        <v>-29.73248672844823</v>
       </c>
       <c r="B94" t="n">
-        <v>-13.15202963239391</v>
+        <v>13.23304414211594</v>
       </c>
       <c r="C94" t="n">
-        <v>43.23208199582698</v>
+        <v>15.5895828912884</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-28.22003684976819</v>
+        <v>-32.9513818336955</v>
       </c>
       <c r="B95" t="n">
-        <v>-27.36898278832724</v>
+        <v>-26.51080522952936</v>
       </c>
       <c r="C95" t="n">
-        <v>-24.81766129412004</v>
+        <v>-12.49989687760604</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>41.86933957891256</v>
+        <v>-19.37187201684764</v>
       </c>
       <c r="B96" t="n">
-        <v>-26.20490486480445</v>
+        <v>17.71699183321182</v>
       </c>
       <c r="C96" t="n">
-        <v>61.99816749837802</v>
+        <v>-26.20996115975649</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.1627607248447</v>
+        <v>-25.53399984492679</v>
       </c>
       <c r="B97" t="n">
-        <v>-24.94787192544424</v>
+        <v>-37.49763417371677</v>
       </c>
       <c r="C97" t="n">
-        <v>21.0805272183798</v>
+        <v>-16.43270971719054</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-24.79347206120766</v>
+        <v>-11.69092357499464</v>
       </c>
       <c r="B98" t="n">
-        <v>-32.26514691191034</v>
+        <v>-19.9769585134188</v>
       </c>
       <c r="C98" t="n">
-        <v>23.14467652557947</v>
+        <v>21.17349836531228</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-18.26464685177391</v>
+        <v>16.67104282451655</v>
       </c>
       <c r="B99" t="n">
-        <v>-22.30089290869441</v>
+        <v>17.11773782659253</v>
       </c>
       <c r="C99" t="n">
-        <v>-23.8523543547355</v>
+        <v>-32.1051984756639</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>26.42002221409825</v>
+        <v>-30.21091471823324</v>
       </c>
       <c r="B100" t="n">
-        <v>-23.34160019919685</v>
+        <v>-33.98678118663141</v>
       </c>
       <c r="C100" t="n">
-        <v>-14.82404945073037</v>
+        <v>-25.61395773301663</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>23.05245534501254</v>
+        <v>28.39546141061138</v>
       </c>
       <c r="B101" t="n">
-        <v>44.13434300641725</v>
+        <v>-24.69472290306287</v>
       </c>
       <c r="C101" t="n">
-        <v>20.4259546541213</v>
+        <v>-34.23063638581611</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-26.70779660144526</v>
+        <v>19.2455297705271</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>15.90827388290163</v>
+        <v>-26.83044318826886</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>59.59330240191482</v>
+        <v>23.3318905933496</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-5.478696186985803</v>
+        <v>-23.16752529833196</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-25.125678909174</v>
+        <v>-27.72137599157993</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-39.93211523674554</v>
+        <v>-45.98876050525778</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>22.44745905288001</v>
+        <v>-24.53153437099589</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>27.90913556851456</v>
+        <v>-17.25758312076728</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>31.98618213507843</v>
+        <v>6.260261851982225</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>26.34788926688881</v>
+        <v>-33.49466060559636</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-43.43501014470076</v>
+        <v>-23.35057249348369</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-46.73294882156635</v>
+        <v>33.80797763668802</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-22.27607325888077</v>
+        <v>31.88615462712893</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>27.52853372134674</v>
+        <v>-12.2833642991404</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-31.47115074100778</v>
+        <v>5.302450835435575</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-30.69798984239819</v>
+        <v>27.96909823680721</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-32.10221728044657</v>
+        <v>26.82583021433077</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-21.82289010440154</v>
+        <v>25.9055521704417</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-12.78645505729128</v>
+        <v>33.35961402298199</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>14.26352174559297</v>
+        <v>16.89182092478404</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-27.13084107528766</v>
+        <v>-19.48211358794754</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-29.60915586282132</v>
+        <v>-37.94626840726809</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-28.66025421870054</v>
+        <v>-30.79712203902388</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-16.63931902894761</v>
+        <v>-46.57838343413605</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-23.82908865458466</v>
+        <v>27.78778260491438</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>16.54557199894764</v>
+        <v>-24.06956611929607</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-15.83408222328431</v>
+        <v>16.91548915547928</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>65.78997126011613</v>
+        <v>-25.19064612531031</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>38.2589956041528</v>
+        <v>-32.20758497201036</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-18.34626647906119</v>
+        <v>32.07803679832621</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-27.60010503902883</v>
+        <v>26.18482594990645</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-25.39840394768686</v>
+        <v>27.53638931677099</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>21.04966991470376</v>
+        <v>-19.42216228203159</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-17.1716640728516</v>
+        <v>22.4399805529683</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-26.74213183371213</v>
+        <v>25.11126796425761</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3.855755053334773</v>
+        <v>-24.5843326822453</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>37.71952122832006</v>
+        <v>22.29105470310139</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-16.92469115699885</v>
+        <v>-26.61152911446145</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>34.46104939324071</v>
+        <v>-23.47905232199667</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>44.77301337443791</v>
+        <v>-24.37983477335258</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5.68172257238261</v>
+        <v>-15.17083917782602</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-39.15371239582626</v>
+        <v>24.68434871993033</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>17.31925481248516</v>
+        <v>17.11872663677227</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-37.07016551626267</v>
+        <v>14.94520813901278</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>38.29426494641457</v>
+        <v>-15.29533482623127</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-27.98635972420255</v>
+        <v>-31.63552810282442</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-11.70268286232471</v>
+        <v>-24.93778199442243</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>21.60207276052144</v>
+        <v>32.00391546389925</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>31.40850929200338</v>
+        <v>-25.03018717382633</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43.40754780754042</v>
+        <v>-25.13148464957628</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
